--- a/excel_file.xlsx
+++ b/excel_file.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="408">
   <si>
     <t>Rank</t>
   </si>
@@ -1222,6 +1222,24 @@
   </si>
   <si>
     <t>some</t>
+  </si>
+  <si>
+    <t>Frederiksborgvej 13-5</t>
+  </si>
+  <si>
+    <t>4000 Roskilde</t>
+  </si>
+  <si>
+    <t>2800 Kongens Lyngby</t>
+  </si>
+  <si>
+    <t>Buddingevej 66</t>
+  </si>
+  <si>
+    <t>3000 Helsingør</t>
+  </si>
+  <si>
+    <t>Ny Kronborgvej 2</t>
   </si>
 </sst>
 </file>
@@ -1577,7 +1595,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1662,6 +1680,9 @@
       </c>
     </row>
     <row r="5" spans="1:8">
+      <c r="B5" t="s">
+        <v>401</v>
+      </c>
       <c r="C5" s="4" t="s">
         <v>399</v>
       </c>
@@ -1671,12 +1692,39 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:8">
+      <c r="B6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="D6" t="s">
+        <v>402</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="D7" t="s">
+        <v>405</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:8">
+      <c r="B8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="D8" t="s">
+        <v>407</v>
+      </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:8">
